--- a/uploads/indirect-expenses.xlsx
+++ b/uploads/indirect-expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Desktop\Dev\priyafils\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334618A0-FFAD-441E-A9D4-727507D2572D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25A91AF-D545-4D34-8925-6EF57ED8149B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F10AF25F-064A-46D8-8D19-D6E7E991E392}"/>
   </bookViews>
@@ -592,7 +592,7 @@
   <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/uploads/indirect-expenses.xlsx
+++ b/uploads/indirect-expenses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Desktop\Dev\priyafils\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25A91AF-D545-4D34-8925-6EF57ED8149B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59B1B81-4ECE-438B-B061-771A0AF4E22A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F10AF25F-064A-46D8-8D19-D6E7E991E392}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23263" windowHeight="13183" xr2:uid="{F10AF25F-064A-46D8-8D19-D6E7E991E392}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Particulars</t>
   </si>
@@ -229,6 +229,30 @@
   </si>
   <si>
     <t>VEHICLE MAINTENANCE</t>
+  </si>
+  <si>
+    <t>Admn</t>
+  </si>
+  <si>
+    <t>Indirect W/o Fin</t>
+  </si>
+  <si>
+    <t>W Cap Int</t>
+  </si>
+  <si>
+    <t>Term Loan</t>
+  </si>
+  <si>
+    <t>COVID LOAN Int</t>
+  </si>
+  <si>
+    <t>Int On Others</t>
+  </si>
+  <si>
+    <t>FIN Cost</t>
+  </si>
+  <si>
+    <t>Indirect COST</t>
   </si>
 </sst>
 </file>
@@ -589,13 +613,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8CE7E0-486C-4AA3-ACE2-CFBF744DAB4E}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.44140625" customWidth="1"/>
     <col min="2" max="2" width="29.77734375" customWidth="1"/>
@@ -1026,6 +1050,78 @@
         <v>767579.14999999991</v>
       </c>
     </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>390250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67">
+        <v>8983</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>399233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>131647</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>12366</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>224333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>368346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>767579</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/uploads/indirect-expenses.xlsx
+++ b/uploads/indirect-expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59B1B81-4ECE-438B-B061-771A0AF4E22A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15424C-4EB5-4DA3-BC7D-412AF043F75F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23263" windowHeight="13183" xr2:uid="{F10AF25F-064A-46D8-8D19-D6E7E991E392}"/>
   </bookViews>
@@ -20,26 +20,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Particulars</t>
-  </si>
-  <si>
-    <t>Apr</t>
   </si>
   <si>
     <t>Administrative Expenses</t>
@@ -296,9 +284,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8CE7E0-486C-4AA3-ACE2-CFBF744DAB4E}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:B74"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -629,13 +618,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="2">
+        <v>45383</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>390249.82999999996</v>
@@ -643,7 +632,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>92372</v>
@@ -651,17 +640,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>30000</v>
@@ -669,7 +658,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>160</v>
@@ -677,12 +666,12 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>25685</v>
@@ -690,7 +679,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>15468</v>
@@ -698,12 +687,12 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -711,7 +700,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>4959</v>
@@ -719,7 +708,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1200</v>
@@ -727,32 +716,32 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>9640</v>
@@ -760,7 +749,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>4922.5</v>
@@ -768,7 +757,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>37423</v>
@@ -776,7 +765,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>52500</v>
@@ -784,12 +773,12 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>110</v>
@@ -797,7 +786,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>7500</v>
@@ -805,17 +794,17 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>-3.39</v>
@@ -823,12 +812,12 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>1369</v>
@@ -836,12 +825,12 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>31572</v>
@@ -849,12 +838,12 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>11273.72</v>
@@ -862,7 +851,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>7769</v>
@@ -870,12 +859,12 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38">
         <v>1830</v>
@@ -883,7 +872,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>53500</v>
@@ -891,7 +880,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>368346.3</v>
@@ -899,7 +888,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>7966.74</v>
@@ -907,7 +896,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>148268.9</v>
@@ -915,7 +904,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>105333</v>
@@ -923,12 +912,12 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>-24588.34</v>
@@ -936,12 +925,12 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>12366</v>
@@ -949,17 +938,17 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>119000</v>
@@ -967,7 +956,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>8983.02</v>
@@ -975,22 +964,22 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55">
         <v>39.020000000000003</v>
@@ -998,7 +987,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <v>811</v>
@@ -1006,22 +995,22 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60">
         <v>8133</v>
@@ -1029,22 +1018,22 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64">
         <v>767579.14999999991</v>
@@ -1052,7 +1041,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>390250</v>
@@ -1060,7 +1049,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B67">
         <v>8983</v>
@@ -1068,7 +1057,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68">
         <v>399233</v>
@@ -1076,7 +1065,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69">
         <v>131647</v>
@@ -1084,7 +1073,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1092,7 +1081,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71">
         <v>12366</v>
@@ -1100,7 +1089,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72">
         <v>224333</v>
@@ -1108,7 +1097,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73">
         <v>368346</v>
@@ -1116,7 +1105,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74">
         <v>767579</v>

--- a/uploads/indirect-expenses.xlsx
+++ b/uploads/indirect-expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15424C-4EB5-4DA3-BC7D-412AF043F75F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFA57F9-BDFE-4153-9962-7BAEBCC6139B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23263" windowHeight="13183" xr2:uid="{F10AF25F-064A-46D8-8D19-D6E7E991E392}"/>
   </bookViews>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>45383</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>390249.82999999996</v>
+        <v>368463.4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -635,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>92372</v>
+        <v>132151.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>160</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>25685</v>
+        <v>22149</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>15468</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -694,25 +694,19 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4959</v>
+        <v>9002.9699999999993</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1200</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -744,7 +738,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9640</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -752,7 +746,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4922.5</v>
+        <v>13283.2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -760,7 +754,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37423</v>
+        <v>19032</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -768,34 +762,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>52500</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1500</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>110</v>
-      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>7500</v>
-      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
+      <c r="B27">
+        <v>1500</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -807,13 +801,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-3.39</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
+      <c r="B30">
+        <v>6000</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -833,7 +830,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>31572</v>
+        <v>10509</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -846,7 +843,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>11273.72</v>
+        <v>6559.62</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -854,7 +851,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7769</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -867,7 +864,7 @@
         <v>63</v>
       </c>
       <c r="B38">
-        <v>1830</v>
+        <v>21180</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -875,7 +872,7 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>53500</v>
+        <v>64166.66</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -883,7 +880,7 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <v>368346.3</v>
+        <v>810580.95</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -891,7 +888,7 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>7966.74</v>
+        <v>3610.26</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -899,7 +896,7 @@
         <v>39</v>
       </c>
       <c r="B42">
-        <v>148268.9</v>
+        <v>172490.69</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -907,7 +904,7 @@
         <v>40</v>
       </c>
       <c r="B43">
-        <v>105333</v>
+        <v>105226</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -920,7 +917,7 @@
         <v>42</v>
       </c>
       <c r="B45">
-        <v>-24588.34</v>
+        <v>399870</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -933,7 +930,7 @@
         <v>44</v>
       </c>
       <c r="B47">
-        <v>12366</v>
+        <v>10384</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -959,7 +956,7 @@
         <v>48</v>
       </c>
       <c r="B51">
-        <v>8983.02</v>
+        <v>50771.509999999995</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -976,13 +973,16 @@
       <c r="A54" t="s">
         <v>51</v>
       </c>
+      <c r="B54">
+        <v>10000</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
       <c r="B55">
-        <v>39.020000000000003</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -990,7 +990,7 @@
         <v>53</v>
       </c>
       <c r="B56">
-        <v>811</v>
+        <v>22632.55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1002,6 +1002,9 @@
       <c r="A58" t="s">
         <v>55</v>
       </c>
+      <c r="B58">
+        <v>1220</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -1013,7 +1016,7 @@
         <v>57</v>
       </c>
       <c r="B60">
-        <v>8133</v>
+        <v>16896</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1036,7 +1039,7 @@
         <v>61</v>
       </c>
       <c r="B64">
-        <v>767579.14999999991</v>
+        <v>1229815.8599999999</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1044,7 +1047,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>390250</v>
+        <v>368463</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1052,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="B67">
-        <v>8983</v>
+        <v>50772</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1060,7 +1063,7 @@
         <v>65</v>
       </c>
       <c r="B68">
-        <v>399233</v>
+        <v>419235</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1068,7 +1071,7 @@
         <v>66</v>
       </c>
       <c r="B69">
-        <v>131647</v>
+        <v>575971</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1084,7 +1087,7 @@
         <v>68</v>
       </c>
       <c r="B71">
-        <v>12366</v>
+        <v>10384</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1092,7 +1095,7 @@
         <v>69</v>
       </c>
       <c r="B72">
-        <v>224333</v>
+        <v>224226</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1100,7 +1103,7 @@
         <v>70</v>
       </c>
       <c r="B73">
-        <v>368346</v>
+        <v>810581</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1108,7 +1111,7 @@
         <v>71</v>
       </c>
       <c r="B74">
-        <v>767579</v>
+        <v>1229816</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/indirect-expenses.xlsx
+++ b/uploads/indirect-expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFA57F9-BDFE-4153-9962-7BAEBCC6139B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D10F5F4-F5E5-4FAB-A3C3-7EE8A3EA7945}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23263" windowHeight="13183" xr2:uid="{F10AF25F-064A-46D8-8D19-D6E7E991E392}"/>
   </bookViews>
@@ -605,7 +605,7 @@
   <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>45413</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>368463.4</v>
+        <v>532489.14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -635,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>132151.5</v>
+        <v>72335.17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>432</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>22149</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>12300</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -700,13 +700,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9002.9699999999993</v>
+        <v>9554.82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>5100</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -738,7 +741,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6420</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -746,7 +749,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13283.2</v>
+        <v>3980.85</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -754,7 +757,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19032</v>
+        <v>28260</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -762,7 +765,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5500</v>
+        <v>80500</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -787,9 +790,6 @@
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>1500</v>
-      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -801,36 +801,36 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.55</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>6000</v>
-      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1369</v>
+        <v>25566.97</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
+      <c r="B32">
+        <v>24483</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>10509</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -843,7 +843,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6559.62</v>
+        <v>6731.78</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -851,7 +851,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5410</v>
+        <v>5351</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -864,7 +864,7 @@
         <v>63</v>
       </c>
       <c r="B38">
-        <v>21180</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -872,7 +872,7 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>64166.66</v>
+        <v>192935</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -880,7 +880,7 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <v>810580.95</v>
+        <v>944632.41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -888,7 +888,7 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>3610.26</v>
+        <v>10643.6</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -896,7 +896,7 @@
         <v>39</v>
       </c>
       <c r="B42">
-        <v>172490.69</v>
+        <v>193459.81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -904,7 +904,7 @@
         <v>40</v>
       </c>
       <c r="B43">
-        <v>105226</v>
+        <v>97333</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -917,7 +917,7 @@
         <v>42</v>
       </c>
       <c r="B45">
-        <v>399870</v>
+        <v>524196</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -929,9 +929,6 @@
       <c r="A47" t="s">
         <v>44</v>
       </c>
-      <c r="B47">
-        <v>10384</v>
-      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -956,7 +953,7 @@
         <v>48</v>
       </c>
       <c r="B51">
-        <v>50771.509999999995</v>
+        <v>53840.53</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -973,16 +970,13 @@
       <c r="A54" t="s">
         <v>51</v>
       </c>
-      <c r="B54">
-        <v>10000</v>
-      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
       <c r="B55">
-        <v>22.96</v>
+        <v>30.53</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -990,7 +984,7 @@
         <v>53</v>
       </c>
       <c r="B56">
-        <v>22632.55</v>
+        <v>41600</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1002,9 +996,6 @@
       <c r="A58" t="s">
         <v>55</v>
       </c>
-      <c r="B58">
-        <v>1220</v>
-      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -1016,7 +1007,7 @@
         <v>57</v>
       </c>
       <c r="B60">
-        <v>16896</v>
+        <v>12210</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1039,7 +1030,7 @@
         <v>61</v>
       </c>
       <c r="B64">
-        <v>1229815.8599999999</v>
+        <v>1530962.08</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1047,7 +1038,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>368463</v>
+        <v>532489</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1055,7 +1046,7 @@
         <v>48</v>
       </c>
       <c r="B67">
-        <v>50772</v>
+        <v>53841</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1063,7 +1054,7 @@
         <v>65</v>
       </c>
       <c r="B68">
-        <v>419235</v>
+        <v>586330</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1071,7 +1062,7 @@
         <v>66</v>
       </c>
       <c r="B69">
-        <v>575971</v>
+        <v>728299</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1087,7 +1078,7 @@
         <v>68</v>
       </c>
       <c r="B71">
-        <v>10384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1095,7 +1086,7 @@
         <v>69</v>
       </c>
       <c r="B72">
-        <v>224226</v>
+        <v>216333</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1103,7 +1094,7 @@
         <v>70</v>
       </c>
       <c r="B73">
-        <v>810581</v>
+        <v>944632</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1111,7 +1102,7 @@
         <v>71</v>
       </c>
       <c r="B74">
-        <v>1229816</v>
+        <v>1530962</v>
       </c>
     </row>
   </sheetData>
